--- a/biology/Médecine/Dysplasie_épiphysaire_multiple_récessive/Dysplasie_épiphysaire_multiple_récessive.xlsx
+++ b/biology/Médecine/Dysplasie_épiphysaire_multiple_récessive/Dysplasie_épiphysaire_multiple_récessive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  dysplasie épiphysaire multiple  est une maladie génétique rare caractérisée par des douleurs articulaires, des malformations des pieds, des mains et des genoux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aucun connu</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène SLC26A2 situé sur le locus q32-q33.1 du chromosome 5
 </t>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inconnue
 </t>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La taille des individus est très légèrement inférieure à la moyenne. La maladie se manifeste principalement au début de la puberté par
 Douleurs articulaires des hanches et des genoux
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,13 +663,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clinique
-Outre les signes cliniques, les radiographies osseuses permettent de retrouver des signes très évocateurs de la pathologie.
-Histologie
-Signes d’absence de protéoglycanes sulfate dans le cartilage. Le défaut d’incorporation du protéoglycanes sulfate peut être mis en évidence par la culture de fibroblastes.
-Génétique
-Hybridation in situ par fluorescence permet le diagnostic dans 90 % des cas en mettant en évidence les trois mutations les plus fréquentes du gène SLC26A2.
-Analyse séquentielle permet le diagnostic dans 100 % des cas</t>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les signes cliniques, les radiographies osseuses permettent de retrouver des signes très évocateurs de la pathologie.
+</t>
         </is>
       </c>
     </row>
@@ -659,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,10 +695,86 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Signes d’absence de protéoglycanes sulfate dans le cartilage. Le défaut d’incorporation du protéoglycanes sulfate peut être mis en évidence par la culture de fibroblastes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hybridation in situ par fluorescence permet le diagnostic dans 90 % des cas en mettant en évidence les trois mutations les plus fréquentes du gène SLC26A2.
+Analyse séquentielle permet le diagnostic dans 100 % des cas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Maladies génétiquement reliées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Trois autres maladies (toutes de transmissions autosomiques récessives) sont en rapport avec des mutations du gène SLC26A2
 Achondrogenèse de type IB
@@ -686,77 +783,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Diagnostic différentiel</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre les maladies qui sont en rapport avec la mutation du gène SLC26A2, les autres dysplasies éphysaires multiples peuvent être discutées.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Diagnostic prénatal</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Grossesse à bas risque
-Le diagnostic échographique est très difficile, seule l'existence de pied bot peut attirer l'attention de l'échographiste.
-Grossesse à haut risque
-Le diagnostic par hybridation in situ par fluorescence est possible après biopsie de trophoblaste ou amniocentèse si la mutation est connue chez les parents bien que cette maladie n’affecte pas l’intelligence.</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,12 +804,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mode transmission</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transmission autosomique récessive 
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les maladies qui sont en rapport avec la mutation du gène SLC26A2, les autres dysplasies éphysaires multiples peuvent être discutées.
 </t>
         </is>
       </c>
@@ -787,7 +822,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -802,14 +837,121 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Grossesse à bas risque</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le diagnostic échographique est très difficile, seule l'existence de pied bot peut attirer l'attention de l'échographiste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Grossesse à haut risque</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le diagnostic par hybridation in situ par fluorescence est possible après biopsie de trophoblaste ou amniocentèse si la mutation est connue chez les parents bien que cette maladie n’affecte pas l’intelligence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mode transmission</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dysplasie_épiphysaire_multiple_récessive</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasie_%C3%A9piphysaire_multiple_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:226900[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:226900
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
